--- a/ZIT-RW-08-22-2023.xlsx
+++ b/ZIT-RW-08-22-2023.xlsx
@@ -460,7 +460,7 @@
     <from>
       <col>6</col>
       <colOff>0</colOff>
-      <row>0</row>
+      <row>19</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -482,7 +482,7 @@
     <from>
       <col>6</col>
       <colOff>0</colOff>
-      <row>1</row>
+      <row>39</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -504,7 +504,7 @@
     <from>
       <col>6</col>
       <colOff>0</colOff>
-      <row>2</row>
+      <row>59</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
